--- a/src/main/resources/config/ChargesBillTo.xlsx
+++ b/src/main/resources/config/ChargesBillTo.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IdeaProjects\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IdeaProjects\excel2pdf\src\main\resources\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -947,10 +947,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L16"/>
+  <dimension ref="A1:L5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -1021,39 +1021,6 @@
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L5"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="L6"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="L7"/>
-    </row>
-    <row r="8" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L8"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="L9"/>
-    </row>
-    <row r="10" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L10"/>
-    </row>
-    <row r="11" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L11"/>
-    </row>
-    <row r="12" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L12"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="L13"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="L14"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="L15"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="L16"/>
-    </row>
   </sheetData>
   <phoneticPr fontId="19" type="noConversion"/>
   <pageMargins left="0" right="0" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/main/resources/config/ChargesBillTo.xlsx
+++ b/src/main/resources/config/ChargesBillTo.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IdeaProjects\excel2pdf\src\main\resources\config\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IdeaProjects\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,16 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
-  <si>
-    <t>City</t>
-  </si>
-  <si>
-    <t>State</t>
-  </si>
-  <si>
-    <t>GA</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>HD</t>
     <phoneticPr fontId="19" type="noConversion"/>
@@ -50,15 +41,15 @@
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
-    <t>Zip</t>
+    <t>HOMEDEPOT.COM#8119</t>
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
-    <t>ATLANTA</t>
+    <t>City/State/Zip</t>
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
-    <t>HOMEDEPOT.COM#8119</t>
+    <t>ATLANTA GA 30339</t>
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
 </sst>
@@ -404,7 +395,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -532,17 +523,6 @@
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -590,7 +570,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -598,10 +578,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - 着色 1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -947,10 +923,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L5"/>
+  <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -959,67 +935,53 @@
     <col min="2" max="2" width="23.109375" customWidth="1"/>
     <col min="3" max="3" width="48.88671875" customWidth="1"/>
     <col min="4" max="4" width="16.77734375" customWidth="1"/>
-    <col min="5" max="5" width="13.109375" customWidth="1"/>
-    <col min="6" max="6" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.5546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11" customWidth="1"/>
-    <col min="10" max="10" width="19.88671875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="37.88671875" style="2" customWidth="1"/>
-    <col min="13" max="13" width="30.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11" customWidth="1"/>
+    <col min="8" max="8" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="37.88671875" style="2" customWidth="1"/>
+    <col min="11" max="11" width="30.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="J1"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="L1"/>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F2" s="6">
-        <v>30339</v>
-      </c>
-      <c r="L2"/>
+      <c r="J2"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="L3"/>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J3"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="L4"/>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J4"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="L5"/>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="19" type="noConversion"/>
